--- a/circus.xlsx
+++ b/circus.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -29,11 +29,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,20 +92,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -114,11 +114,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +252,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,14 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="6.625" customWidth="1"/>
@@ -416,109 +460,109 @@
     <col min="5" max="15" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4">
         <v>100</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
         <v>200</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4">
         <v>400</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4">
         <v>600</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4">
         <v>900</v>
       </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>3187.9666666666667</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4">
         <v>3016.2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>2891.2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <v>2788.2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>2657.2</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>2548.6999999999998</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4">
         <f>SUM(B6:B8)/3</f>
         <v>3187.9666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24" customHeight="1">
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>100</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>200</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <v>400</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>600</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>700</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>900</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="R5" s="1">
+      <c r="O5" s="4"/>
+      <c r="R5" s="4">
         <v>800</v>
       </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="24" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6">
@@ -558,8 +602,8 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
       <c r="B7">
         <v>3179.4</v>
       </c>
@@ -567,8 +611,8 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
       <c r="B8">
         <v>3181.1</v>
       </c>
@@ -576,23 +620,32 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
         <v>3098.9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>73.400000000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -600,20 +653,11 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A6:A11"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,19 +666,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,57 +686,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>3187.9666666666699</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>100</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>3016.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>200</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2891.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>400</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2788.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>600</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2657.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>900</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>2548.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -702,12 +746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
